--- a/data/trans_orig/P2C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>137961</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>118509</v>
+        <v>119460</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>160241</v>
+        <v>161368</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2034517589411123</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1747648874301749</v>
+        <v>0.1761685226366037</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2363078037954007</v>
+        <v>0.237970143103193</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>279</v>
@@ -765,19 +765,19 @@
         <v>285053</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>257898</v>
+        <v>259325</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>316317</v>
+        <v>311386</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2850271699611166</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2578751206652166</v>
+        <v>0.2593014309372089</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3162887789890503</v>
+        <v>0.3113584936856628</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>412</v>
@@ -786,19 +786,19 @@
         <v>423014</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>387233</v>
+        <v>385857</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>458563</v>
+        <v>458313</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2520651999893747</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.230744205144902</v>
+        <v>0.2299242491731592</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2732482974289945</v>
+        <v>0.2730993732803238</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>540142</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>517862</v>
+        <v>516735</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>559594</v>
+        <v>558643</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7965482410588878</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7636921962045989</v>
+        <v>0.7620298568968076</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8252351125698251</v>
+        <v>0.8238314773633966</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>701</v>
@@ -836,19 +836,19 @@
         <v>715036</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>683772</v>
+        <v>688703</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>742191</v>
+        <v>740764</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7149728300388833</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6837112210109496</v>
+        <v>0.6886415063143372</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7421248793347834</v>
+        <v>0.7406985690627913</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1259</v>
@@ -857,19 +857,19 @@
         <v>1255178</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1219629</v>
+        <v>1219879</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1290959</v>
+        <v>1292335</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7479348000106253</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7267517025710053</v>
+        <v>0.7269006267196763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7692557948550978</v>
+        <v>0.7700757508268411</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>427487</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>398556</v>
+        <v>396438</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>461098</v>
+        <v>456884</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.454672842191245</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4239019563145986</v>
+        <v>0.4216488189912196</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4904208041441575</v>
+        <v>0.4859393700094886</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>576</v>
@@ -982,19 +982,19 @@
         <v>599174</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>566300</v>
+        <v>568876</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>629660</v>
+        <v>630532</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5925953956414469</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5600823974921442</v>
+        <v>0.5626298515249922</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6227465138031225</v>
+        <v>0.6236082571610352</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>986</v>
@@ -1003,19 +1003,19 @@
         <v>1026661</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>983190</v>
+        <v>980635</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1077469</v>
+        <v>1069118</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5261395604678244</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5038614113883897</v>
+        <v>0.5025519447459786</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.552177445030693</v>
+        <v>0.5478976004744583</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>512721</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>479110</v>
+        <v>483324</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>541652</v>
+        <v>543770</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.545327157808755</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5095791958558427</v>
+        <v>0.5140606299905114</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5760980436854013</v>
+        <v>0.5783511810087802</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>406</v>
@@ -1053,19 +1053,19 @@
         <v>411928</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>381442</v>
+        <v>380570</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>444802</v>
+        <v>442226</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4074046043585531</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3772534861968774</v>
+        <v>0.3763917428389648</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4399176025078559</v>
+        <v>0.4373701484750078</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>914</v>
@@ -1074,19 +1074,19 @@
         <v>924649</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>873841</v>
+        <v>882192</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>968120</v>
+        <v>970675</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4738604395321756</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4478225549693066</v>
+        <v>0.4521023995255414</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4961385886116103</v>
+        <v>0.4974480552540214</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>140555</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123610</v>
+        <v>122926</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158020</v>
+        <v>157420</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4814943017878265</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4234464248778322</v>
+        <v>0.4211029013259716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5413227898760288</v>
+        <v>0.539267751951624</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>163</v>
@@ -1199,19 +1199,19 @@
         <v>174472</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156976</v>
+        <v>158184</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>191536</v>
+        <v>191484</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6012694398047517</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5409771274567557</v>
+        <v>0.545139099091973</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6600759096477642</v>
+        <v>0.6598982933787242</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>299</v>
@@ -1220,19 +1220,19 @@
         <v>315026</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>289481</v>
+        <v>290777</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>340818</v>
+        <v>341743</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5412025308851325</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4973166275330243</v>
+        <v>0.4995429497534991</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.585511306396078</v>
+        <v>0.5871003070226638</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>151360</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>133895</v>
+        <v>134495</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>168305</v>
+        <v>168989</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5185056982121735</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4586772101239713</v>
+        <v>0.4607322480483761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5765535751221679</v>
+        <v>0.5788970986740285</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>110</v>
@@ -1270,19 +1270,19 @@
         <v>115700</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>98636</v>
+        <v>98688</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>133196</v>
+        <v>131988</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3987305601952484</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3399240903522359</v>
+        <v>0.3401017066212758</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4590228725432448</v>
+        <v>0.4548609009080269</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>250</v>
@@ -1291,19 +1291,19 @@
         <v>267060</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>241268</v>
+        <v>240343</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>292605</v>
+        <v>291309</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4587974691148675</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.414488693603922</v>
+        <v>0.4128996929773363</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5026833724669755</v>
+        <v>0.5004570502465009</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>706004</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>661905</v>
+        <v>662881</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>747338</v>
+        <v>745847</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.369591729116386</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3465063125864314</v>
+        <v>0.3470171733451646</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3912302554213937</v>
+        <v>0.390449371776911</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1018</v>
@@ -1416,19 +1416,19 @@
         <v>1058698</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1011484</v>
+        <v>1010044</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1107805</v>
+        <v>1104063</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4600310069908319</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4395154551606719</v>
+        <v>0.438889842420479</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4813692437366623</v>
+        <v>0.4797433182808947</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1697</v>
@@ -1437,19 +1437,19 @@
         <v>1764702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1700701</v>
+        <v>1703613</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1829427</v>
+        <v>1830217</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.419010984531705</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4038147419973355</v>
+        <v>0.40450618918399</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4343794846732857</v>
+        <v>0.4345669172472289</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1204222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1162888</v>
+        <v>1164379</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1248321</v>
+        <v>1247345</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.630408270883614</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6087697445786061</v>
+        <v>0.6095506282230889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6534936874135684</v>
+        <v>0.6529828266548353</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1217</v>
@@ -1487,19 +1487,19 @@
         <v>1242664</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1193557</v>
+        <v>1197299</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1289878</v>
+        <v>1291318</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5399689930091681</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5186307562633378</v>
+        <v>0.5202566817191053</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5604845448393281</v>
+        <v>0.561110157579521</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2423</v>
@@ -1508,19 +1508,19 @@
         <v>2446886</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2382161</v>
+        <v>2381371</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2510887</v>
+        <v>2507975</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.580989015468295</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5656205153267144</v>
+        <v>0.5654330827527713</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5961852580026645</v>
+        <v>0.59549381081601</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>199146</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>176110</v>
+        <v>175618</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>224485</v>
+        <v>223833</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2777495918140886</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.245621032385754</v>
+        <v>0.2449353152653554</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3130902825897938</v>
+        <v>0.3121806531383497</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>364</v>
@@ -1872,19 +1872,19 @@
         <v>393204</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>361188</v>
+        <v>360880</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>423790</v>
+        <v>424164</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3701403344640186</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3400017154087691</v>
+        <v>0.3397121697188519</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3989323344410588</v>
+        <v>0.3992839613276313</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>550</v>
@@ -1893,19 +1893,19 @@
         <v>592350</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>554852</v>
+        <v>549584</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>630941</v>
+        <v>634702</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3329101773095511</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3118355950833174</v>
+        <v>0.3088750372315093</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3545986821995664</v>
+        <v>0.3567127121422841</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>517852</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>492513</v>
+        <v>493165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>540888</v>
+        <v>541380</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7222504081859114</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6869097174102063</v>
+        <v>0.6878193468616504</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7543789676142462</v>
+        <v>0.7550646847346447</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>628</v>
@@ -1943,19 +1943,19 @@
         <v>669107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>638521</v>
+        <v>638147</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>701123</v>
+        <v>701431</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6298596655359814</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6010676655589412</v>
+        <v>0.6007160386723687</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6599982845912309</v>
+        <v>0.6602878302811481</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1106</v>
@@ -1964,19 +1964,19 @@
         <v>1186959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1148368</v>
+        <v>1144607</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1224457</v>
+        <v>1229725</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6670898226904489</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.645401317800433</v>
+        <v>0.6432872878577158</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6881644049166824</v>
+        <v>0.6911249627684907</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>674201</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>640036</v>
+        <v>638335</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>710329</v>
+        <v>706316</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5821258739604754</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5526263267247693</v>
+        <v>0.5511581952104194</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6133193168415131</v>
+        <v>0.6098543829450376</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>868</v>
@@ -2089,19 +2089,19 @@
         <v>930117</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>901147</v>
+        <v>898091</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>957917</v>
+        <v>956703</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7863122102302902</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7618216083881723</v>
+        <v>0.7592378610224171</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8098142723488803</v>
+        <v>0.8087875861268896</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1513</v>
@@ -2110,19 +2110,19 @@
         <v>1604318</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1561085</v>
+        <v>1557910</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1650977</v>
+        <v>1652511</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6852968413681859</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6668294666761719</v>
+        <v>0.6654730019457776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7052276290805706</v>
+        <v>0.7058828899622133</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>483970</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>447842</v>
+        <v>451855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>518135</v>
+        <v>519836</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4178741260395246</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3866806831584867</v>
+        <v>0.3901456170549624</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4473736732752306</v>
+        <v>0.4488418047895806</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>238</v>
@@ -2160,19 +2160,19 @@
         <v>252768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>224968</v>
+        <v>226182</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>281738</v>
+        <v>284794</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2136877897697098</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1901857276511197</v>
+        <v>0.1912124138731102</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2381783916118276</v>
+        <v>0.2407621389775828</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>688</v>
@@ -2181,19 +2181,19 @@
         <v>736738</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>690079</v>
+        <v>688545</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>779971</v>
+        <v>783146</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3147031586318141</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2947723709194293</v>
+        <v>0.2941171100377867</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3331705333238281</v>
+        <v>0.3345269980542223</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>180210</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164135</v>
+        <v>164518</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>196887</v>
+        <v>196028</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6942410706789919</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6323161308973936</v>
+        <v>0.6337890618017638</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7584876001444788</v>
+        <v>0.755181377293084</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>207</v>
@@ -2306,19 +2306,19 @@
         <v>226702</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>212251</v>
+        <v>212404</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>238766</v>
+        <v>238440</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.844252434669573</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7904357093870408</v>
+        <v>0.7910061220518898</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8891791069710858</v>
+        <v>0.8879646483694773</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>371</v>
@@ -2327,19 +2327,19 @@
         <v>406911</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>385432</v>
+        <v>384452</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>427031</v>
+        <v>426263</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7705173433151828</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7298448035711379</v>
+        <v>0.7279893523867876</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8086162010345608</v>
+        <v>0.807162196815188</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>79368</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62691</v>
+        <v>63550</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95443</v>
+        <v>95060</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3057589293210081</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2415123998555212</v>
+        <v>0.2448186227069157</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3676838691026064</v>
+        <v>0.3662109381982359</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -2377,19 +2377,19 @@
         <v>41822</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29758</v>
+        <v>30084</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56273</v>
+        <v>56120</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1557475653304271</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1108208930289143</v>
+        <v>0.1120353516305228</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2095642906129594</v>
+        <v>0.2089938779481102</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>103</v>
@@ -2398,19 +2398,19 @@
         <v>121190</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>101070</v>
+        <v>101838</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>142669</v>
+        <v>143649</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2294826566848172</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1913837989654392</v>
+        <v>0.1928378031848122</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2701551964288622</v>
+        <v>0.2720106476132124</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1053556</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1007553</v>
+        <v>1008884</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1100436</v>
+        <v>1105750</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4935277416901999</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4719781512150859</v>
+        <v>0.4726013498502553</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5154878704809492</v>
+        <v>0.5179771907550598</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1439</v>
@@ -2523,19 +2523,19 @@
         <v>1550023</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1493494</v>
+        <v>1500419</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1593688</v>
+        <v>1595078</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6166251595468614</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.594137161192227</v>
+        <v>0.5968920435907327</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6339958640235834</v>
+        <v>0.6345488756315429</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2434</v>
@@ -2544,19 +2544,19 @@
         <v>2603579</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2535597</v>
+        <v>2535323</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2671120</v>
+        <v>2676610</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5600943134432668</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.545469636945643</v>
+        <v>0.5454105875071298</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5746240078484274</v>
+        <v>0.5758049101631937</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1081190</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1034310</v>
+        <v>1028996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1127193</v>
+        <v>1125862</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5064722583098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4845121295190508</v>
+        <v>0.4820228092449402</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5280218487849141</v>
+        <v>0.5273986501497446</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>901</v>
@@ -2594,19 +2594,19 @@
         <v>963697</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>920032</v>
+        <v>918642</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1020226</v>
+        <v>1013301</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3833748404531386</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3660041359764165</v>
+        <v>0.3654511243684571</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4058628388077729</v>
+        <v>0.4031079564092673</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1897</v>
@@ -2615,19 +2615,19 @@
         <v>2044887</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1977346</v>
+        <v>1971856</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2112869</v>
+        <v>2113143</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4399056865567332</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4253759921515727</v>
+        <v>0.4241950898368066</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4545303630543572</v>
+        <v>0.4545894124928704</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>141290</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>121777</v>
+        <v>120846</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>160369</v>
+        <v>160222</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2726284102731397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2349779516742651</v>
+        <v>0.2331811302720622</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3094425709339705</v>
+        <v>0.3091602147491437</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>210</v>
@@ -2979,19 +2979,19 @@
         <v>222973</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>197937</v>
+        <v>195982</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>250533</v>
+        <v>250524</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2838399541151979</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2519699612876394</v>
+        <v>0.2494813069299029</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3189234704703734</v>
+        <v>0.3189120936356395</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>348</v>
@@ -3000,19 +3000,19 @@
         <v>364263</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>331113</v>
+        <v>333818</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>396333</v>
+        <v>399658</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2793834863876292</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2539582041006907</v>
+        <v>0.2560325514758005</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3039807674258901</v>
+        <v>0.3065304777809443</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>376960</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>357881</v>
+        <v>358028</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>396473</v>
+        <v>397404</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7273715897268603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6905574290660295</v>
+        <v>0.6908397852508555</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7650220483257348</v>
+        <v>0.7668188697279379</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>484</v>
@@ -3050,19 +3050,19 @@
         <v>562586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>535026</v>
+        <v>535035</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>587622</v>
+        <v>589577</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7161600458848022</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6810765295296265</v>
+        <v>0.6810879063643606</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7480300387123607</v>
+        <v>0.7505186930700971</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>885</v>
@@ -3071,19 +3071,19 @@
         <v>939547</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>907477</v>
+        <v>904152</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>972697</v>
+        <v>969992</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7206165136123708</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6960192325741097</v>
+        <v>0.6934695222190556</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7460417958993092</v>
+        <v>0.7439674485241993</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>541921</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>508650</v>
+        <v>508881</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>576310</v>
+        <v>573911</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4917871296214131</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4615938943416049</v>
+        <v>0.4618039912666322</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5229944638935261</v>
+        <v>0.5208178146747648</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>740</v>
@@ -3196,19 +3196,19 @@
         <v>749761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>716656</v>
+        <v>711392</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>785633</v>
+        <v>786140</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6083034598593352</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5814440264321714</v>
+        <v>0.5771728947292536</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6374070536722672</v>
+        <v>0.6378183509169709</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1254</v>
@@ -3217,19 +3217,19 @@
         <v>1291682</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1243075</v>
+        <v>1243342</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1343202</v>
+        <v>1339708</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.553304549241366</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5324831093549827</v>
+        <v>0.5325973302222022</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5753736701435161</v>
+        <v>0.5738767313533603</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>560021</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>525632</v>
+        <v>528031</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>593292</v>
+        <v>593061</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.508212870378587</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4770055361064738</v>
+        <v>0.4791821853252352</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.538406105658395</v>
+        <v>0.5381960087333678</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -3267,19 +3267,19 @@
         <v>482784</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>446912</v>
+        <v>446405</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>515889</v>
+        <v>521153</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3916965401406648</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3625929463277328</v>
+        <v>0.3621816490830291</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4185559735678287</v>
+        <v>0.4228271052707461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>982</v>
@@ -3288,19 +3288,19 @@
         <v>1042805</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>991285</v>
+        <v>994779</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1091412</v>
+        <v>1091145</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.446695450758634</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4246263298564838</v>
+        <v>0.4261232686466397</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4675168906450173</v>
+        <v>0.4674026697777978</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>150701</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133612</v>
+        <v>132516</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168360</v>
+        <v>167296</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5616283187647537</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4979413716146594</v>
+        <v>0.4938576632305225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6274391867307959</v>
+        <v>0.6234729722698303</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>214</v>
@@ -3413,19 +3413,19 @@
         <v>222199</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>204678</v>
+        <v>205376</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>239639</v>
+        <v>238726</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7112176975946203</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6551374519834202</v>
+        <v>0.657371747253743</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7670410930659899</v>
+        <v>0.7641195955810189</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>351</v>
@@ -3434,19 +3434,19 @@
         <v>372900</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>350041</v>
+        <v>348921</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>396135</v>
+        <v>396798</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6421015356864167</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.602740416045507</v>
+        <v>0.600811428514141</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6821109948762519</v>
+        <v>0.6832519453243107</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>117628</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99969</v>
+        <v>101033</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>134717</v>
+        <v>135813</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4383716812352462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3725608132692041</v>
+        <v>0.3765270277301696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5020586283853407</v>
+        <v>0.5061423367694774</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>83</v>
@@ -3484,19 +3484,19 @@
         <v>90221</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72781</v>
+        <v>73694</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>107742</v>
+        <v>107044</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2887823024053797</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2329589069340101</v>
+        <v>0.2358804044189811</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3448625480165797</v>
+        <v>0.3426282527462571</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>191</v>
@@ -3505,19 +3505,19 @@
         <v>207849</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>184614</v>
+        <v>183951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>230708</v>
+        <v>231828</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3578984643135834</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3178890051237481</v>
+        <v>0.3167480546756893</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.397259583954493</v>
+        <v>0.3991885714858587</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>833912</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>789112</v>
+        <v>789315</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>877614</v>
+        <v>874341</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4415686457023072</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4178464735895859</v>
+        <v>0.4179540698125938</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4647096720952613</v>
+        <v>0.4629766070090364</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1164</v>
@@ -3630,19 +3630,19 @@
         <v>1194933</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1147661</v>
+        <v>1143899</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1243537</v>
+        <v>1242841</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5127314647459663</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.492447612328104</v>
+        <v>0.4908334238668355</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5335866662589666</v>
+        <v>0.533288402463807</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1953</v>
@@ -3651,19 +3651,19 @@
         <v>2028845</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1963516</v>
+        <v>1960455</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2102920</v>
+        <v>2098254</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4808777001480247</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4653935216625971</v>
+        <v>0.4646679990382214</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.498435156786453</v>
+        <v>0.4973290207050905</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1054609</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1010907</v>
+        <v>1014180</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1099409</v>
+        <v>1099206</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5584313542976928</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5352903279047388</v>
+        <v>0.5370233929909636</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5821535264104141</v>
+        <v>0.5820459301874062</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1013</v>
@@ -3701,19 +3701,19 @@
         <v>1135591</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1086987</v>
+        <v>1087683</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1182863</v>
+        <v>1186625</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4872685352540336</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4664133337410337</v>
+        <v>0.4667115975361928</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.507552387671896</v>
+        <v>0.5091665761331643</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2058</v>
@@ -3722,19 +3722,19 @@
         <v>2190200</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2116125</v>
+        <v>2120791</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2255529</v>
+        <v>2258590</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5191222998519753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5015648432135472</v>
+        <v>0.5026709792949094</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5346064783374032</v>
+        <v>0.5353320009617787</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>52771</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40961</v>
+        <v>40841</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67380</v>
+        <v>66993</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09121504839696778</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07080161800261679</v>
+        <v>0.07059440807937581</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1164670716742603</v>
+        <v>0.1157994213603504</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>153</v>
@@ -4086,19 +4086,19 @@
         <v>94762</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81367</v>
+        <v>80043</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110775</v>
+        <v>109828</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1152770372478739</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09898176038792661</v>
+        <v>0.09737098124271837</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1347559390316912</v>
+        <v>0.133605127089578</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>214</v>
@@ -4107,19 +4107,19 @@
         <v>147533</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>128820</v>
+        <v>129219</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>168003</v>
+        <v>168458</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1053378015383323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09197724148005434</v>
+        <v>0.09226161983168354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1199536183683597</v>
+        <v>0.1202781612621444</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>525758</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>511149</v>
+        <v>511536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>537568</v>
+        <v>537688</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9087849516030325</v>
+        <v>0.9087849516030321</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8835329283257397</v>
+        <v>0.8842005786396501</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9291983819973832</v>
+        <v>0.9294055919206243</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1274</v>
@@ -4157,19 +4157,19 @@
         <v>727276</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>711263</v>
+        <v>712210</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>740671</v>
+        <v>741995</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8847229627521261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8652440609683089</v>
+        <v>0.8663948729104221</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9010182396120733</v>
+        <v>0.9026290187572816</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1904</v>
@@ -4178,19 +4178,19 @@
         <v>1253034</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1232564</v>
+        <v>1232109</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1271747</v>
+        <v>1271348</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8946621984616677</v>
+        <v>0.8946621984616675</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8800463816316402</v>
+        <v>0.8797218387378557</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9080227585199457</v>
+        <v>0.9077383801683164</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>206841</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>180149</v>
+        <v>179084</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>240869</v>
+        <v>238595</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09273031190748772</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08076365800549887</v>
+        <v>0.08028623700859461</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1079854598689624</v>
+        <v>0.1069659285276248</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>371</v>
@@ -4303,19 +4303,19 @@
         <v>307610</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>279161</v>
+        <v>277612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>340305</v>
+        <v>339895</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1416650689623184</v>
+        <v>0.1416650689623183</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1285630438862555</v>
+        <v>0.1278498522926913</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1567219615209871</v>
+        <v>0.1565330778096204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>556</v>
@@ -4324,19 +4324,19 @@
         <v>514452</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>470473</v>
+        <v>474744</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>557285</v>
+        <v>561324</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1168687827239626</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1068780184163454</v>
+        <v>0.1078483979080779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1265992648173906</v>
+        <v>0.1275169727159675</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2023725</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1989697</v>
+        <v>1991971</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2050417</v>
+        <v>2051482</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9072696880925124</v>
+        <v>0.9072696880925123</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8920145401310374</v>
+        <v>0.8930340714723751</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9192363419945011</v>
+        <v>0.9197137629914053</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2550</v>
@@ -4374,19 +4374,19 @@
         <v>1863782</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1831087</v>
+        <v>1831497</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1892231</v>
+        <v>1893780</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8583349310376819</v>
+        <v>0.8583349310376815</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8432780384790129</v>
+        <v>0.8434669221903793</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8714369561137445</v>
+        <v>0.8721501477073087</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4357</v>
@@ -4395,19 +4395,19 @@
         <v>3887507</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3844674</v>
+        <v>3840635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3931486</v>
+        <v>3927215</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8831312172760374</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8734007351826092</v>
+        <v>0.8724830272840325</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8931219815836544</v>
+        <v>0.8921516020919222</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>53628</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40097</v>
+        <v>39315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75554</v>
+        <v>72702</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07536364257794681</v>
+        <v>0.0753636425779468</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05634867666826548</v>
+        <v>0.05524964924287702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1061772212107626</v>
+        <v>0.1021692320879995</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>102</v>
@@ -4520,19 +4520,19 @@
         <v>78266</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64071</v>
+        <v>64539</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93401</v>
+        <v>94309</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1065021190715148</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08718572211886959</v>
+        <v>0.08782273444904277</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1270980431761959</v>
+        <v>0.1283326141187787</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -4541,19 +4541,19 @@
         <v>131894</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111648</v>
+        <v>111576</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157601</v>
+        <v>156238</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09118356896475503</v>
+        <v>0.09118356896475499</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07718655309944951</v>
+        <v>0.07713696656306715</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1089562571089339</v>
+        <v>0.1080139111366463</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>657959</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>636033</v>
+        <v>638885</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>671490</v>
+        <v>672272</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9246363574220532</v>
+        <v>0.9246363574220531</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8938227787892373</v>
+        <v>0.8978307679120003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9436513233317344</v>
+        <v>0.9447503507571229</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>902</v>
@@ -4591,19 +4591,19 @@
         <v>656611</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>641476</v>
+        <v>640568</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>670806</v>
+        <v>670338</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.893497880928485</v>
+        <v>0.8934978809284851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8729019568238036</v>
+        <v>0.8716673858812213</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9128142778811303</v>
+        <v>0.9121772655509572</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1538</v>
@@ -4612,19 +4612,19 @@
         <v>1314570</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1288863</v>
+        <v>1290226</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1334816</v>
+        <v>1334888</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9088164310352451</v>
+        <v>0.908816431035245</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8910437428910661</v>
+        <v>0.8919860888633536</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9228134469005506</v>
+        <v>0.922863033436933</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>313240</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>277159</v>
+        <v>280047</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>351070</v>
+        <v>358889</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08897123387169954</v>
+        <v>0.08897123387169958</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07872311034543904</v>
+        <v>0.0795434748867552</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09971642561363486</v>
+        <v>0.1019374334264287</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>626</v>
@@ -4737,19 +4737,19 @@
         <v>480638</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>445995</v>
+        <v>447951</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>516624</v>
+        <v>520532</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1289160085441294</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1196241264426415</v>
+        <v>0.1201487668344314</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.138568031777674</v>
+        <v>0.1396162732229796</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>917</v>
@@ -4758,19 +4758,19 @@
         <v>793878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>741916</v>
+        <v>742741</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>846592</v>
+        <v>848752</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1095156673131803</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1023475032238509</v>
+        <v>0.1024613507749574</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1167875418134219</v>
+        <v>0.1170855860021607</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3207443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3169613</v>
+        <v>3161794</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3243524</v>
+        <v>3240636</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9110287661283004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9002835743863653</v>
+        <v>0.8980625665735712</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.921276889654561</v>
+        <v>0.9204565251132447</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4726</v>
@@ -4808,19 +4808,19 @@
         <v>3247669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3211683</v>
+        <v>3207775</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3282312</v>
+        <v>3280356</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8710839914558707</v>
+        <v>0.8710839914558706</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.861431968222326</v>
+        <v>0.8603837267770205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8803758735573585</v>
+        <v>0.8798512331655681</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7799</v>
@@ -4829,19 +4829,19 @@
         <v>6455112</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6402398</v>
+        <v>6400238</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6507074</v>
+        <v>6506249</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8904843326868196</v>
+        <v>0.8904843326868199</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8832124581865782</v>
+        <v>0.8829144139978389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8976524967761491</v>
+        <v>0.8975386492250426</v>
       </c>
     </row>
     <row r="15">
